--- a/data/BWdataset.xlsx
+++ b/data/BWdataset.xlsx
@@ -7626,7 +7626,9 @@
       </c>
       <c r="C181" s="36"/>
       <c r="D181" s="36"/>
-      <c r="E181" s="37"/>
+      <c r="E181" s="23">
+        <v>2.0</v>
+      </c>
       <c r="F181" s="16" t="s">
         <v>24</v>
       </c>

--- a/data/BWdataset.xlsx
+++ b/data/BWdataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanrogers/Documents/GitHub/fragGrowthExperiment/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810B0ADA-F6C9-E749-BCE2-8B3BA4719E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA8822D-CF72-054A-966D-69FF4320D18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,9 +692,9 @@
   </sheetPr>
   <dimension ref="A1:L1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H327" sqref="H327"/>
+    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H408" sqref="H408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6216,7 +6216,7 @@
         <v>22</v>
       </c>
       <c r="H143" s="18">
-        <v>567.88</v>
+        <v>653.78</v>
       </c>
       <c r="I143" s="16">
         <v>1500</v>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="L143" s="21">
         <f t="shared" si="0"/>
-        <v>873.26025084743276</v>
+        <v>1005.3533964905166</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="15.75" customHeight="1">
@@ -11919,8 +11919,7 @@
         <v>23</v>
       </c>
       <c r="H293" s="38">
-        <f>552.68-15.32+139.4</f>
-        <v>676.75999999999988</v>
+        <v>676.76</v>
       </c>
       <c r="I293" s="14">
         <v>1145</v>
@@ -11933,7 +11932,7 @@
       </c>
       <c r="L293" s="12">
         <f t="shared" si="0"/>
-        <v>1040.9828431874364</v>
+        <v>1040.9828431874366</v>
       </c>
     </row>
     <row r="294" spans="1:12" ht="15.75" customHeight="1">
@@ -11999,7 +11998,6 @@
         <v>23</v>
       </c>
       <c r="H295" s="38">
-        <f>521.93-15.32+139.4</f>
         <v>646.01</v>
       </c>
       <c r="I295" s="14">
@@ -12079,8 +12077,8 @@
         <v>23</v>
       </c>
       <c r="H297" s="38">
-        <f>575.46-15.32</f>
-        <v>560.14</v>
+        <f>575.46</f>
+        <v>575.46</v>
       </c>
       <c r="I297" s="14">
         <v>1145</v>
@@ -12093,7 +12091,7 @@
       </c>
       <c r="L297" s="12">
         <f t="shared" si="0"/>
-        <v>861.59957707756178</v>
+        <v>885.16458854046084</v>
       </c>
     </row>
     <row r="298" spans="1:12" ht="15.75" customHeight="1">
@@ -12119,8 +12117,8 @@
         <v>23</v>
       </c>
       <c r="H298" s="38">
-        <f>494.33-15.32</f>
-        <v>479.01</v>
+        <f>494.33</f>
+        <v>494.33</v>
       </c>
       <c r="I298" s="14">
         <v>1145</v>
@@ -12133,7 +12131,7 @@
       </c>
       <c r="L298" s="12">
         <f t="shared" si="0"/>
-        <v>736.80653660856728</v>
+        <v>760.37154807146624</v>
       </c>
     </row>
     <row r="299" spans="1:12" ht="15.75" customHeight="1">
@@ -13243,7 +13241,7 @@
         <v>22</v>
       </c>
       <c r="H327" s="38">
-        <v>830.72</v>
+        <v>876.49</v>
       </c>
       <c r="I327" s="14">
         <v>1430</v>
@@ -13256,7 +13254,7 @@
       </c>
       <c r="L327" s="12">
         <f t="shared" si="0"/>
-        <v>1276.4021752240512</v>
+        <v>1346.7278295480169</v>
       </c>
     </row>
     <row r="328" spans="1:12" ht="15.75" customHeight="1">
@@ -16333,8 +16331,7 @@
         <v>23</v>
       </c>
       <c r="H407" s="38">
-        <f>280.33+219.98+15.53</f>
-        <v>515.83999999999992</v>
+        <v>556.23</v>
       </c>
       <c r="I407" s="14">
         <v>1512</v>
@@ -16347,7 +16344,7 @@
       </c>
       <c r="L407" s="12">
         <f t="shared" si="0"/>
-        <v>792.67351470531139</v>
+        <v>854.73943293373031</v>
       </c>
     </row>
     <row r="408" spans="1:12" ht="15.75" customHeight="1">
@@ -16373,8 +16370,7 @@
         <v>23</v>
       </c>
       <c r="H408" s="38">
-        <f>556.27+219.98</f>
-        <v>776.25</v>
+        <v>677.68</v>
       </c>
       <c r="I408" s="14">
         <v>1512</v>
@@ -16387,7 +16383,7 @@
       </c>
       <c r="L408" s="12">
         <f t="shared" si="0"/>
-        <v>1192.8365690718015</v>
+        <v>1041.3674539498593</v>
       </c>
     </row>
     <row r="409" spans="1:12" ht="15.75" customHeight="1">

--- a/data/BWdataset.xlsx
+++ b/data/BWdataset.xlsx
@@ -2654,7 +2654,7 @@
         <v>51.21753886</v>
       </c>
       <c r="N32" s="23">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O32" s="26"/>
       <c r="Q32" s="26"/>
@@ -2711,7 +2711,7 @@
         <v>297.3911679</v>
       </c>
       <c r="N33" s="23">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="O33" s="26"/>
       <c r="Q33" s="26"/>
@@ -2894,7 +2894,7 @@
         <v>283.9199384</v>
       </c>
       <c r="N36" s="23">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="O36" s="26"/>
       <c r="Q36" s="26"/>
@@ -2955,7 +2955,7 @@
         <v>1309.087657</v>
       </c>
       <c r="N37" s="23">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
       <c r="O37" s="26"/>
       <c r="Q37" s="26"/>
@@ -3016,7 +3016,7 @@
         <v>337.3923134</v>
       </c>
       <c r="N38" s="23">
-        <v>1.0</v>
+        <v>30.0</v>
       </c>
       <c r="O38" s="26"/>
       <c r="Q38" s="26"/>
@@ -3077,7 +3077,7 @@
         <v>1786.856313</v>
       </c>
       <c r="N39" s="23">
-        <v>30.0</v>
+        <v>1.0</v>
       </c>
       <c r="O39" s="26"/>
       <c r="Q39" s="26"/>
@@ -3870,7 +3870,7 @@
         <v>280.5027399</v>
       </c>
       <c r="N52" s="23">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="O52" s="26"/>
       <c r="Q52" s="26"/>
@@ -3931,7 +3931,7 @@
         <v>691.8601236</v>
       </c>
       <c r="N53" s="23">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="O53" s="26"/>
       <c r="Q53" s="26"/>
@@ -4053,7 +4053,7 @@
         <v>134.4252004</v>
       </c>
       <c r="N55" s="23">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="O55" s="26"/>
       <c r="Q55" s="26"/>
@@ -4114,7 +4114,7 @@
         <v>515.3774469</v>
       </c>
       <c r="N56" s="23">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="O56" s="26"/>
       <c r="Q56" s="26"/>
@@ -4175,7 +4175,7 @@
         <v>248.0142155</v>
       </c>
       <c r="N57" s="23">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="O57" s="26"/>
       <c r="Q57" s="26"/>
@@ -4236,7 +4236,7 @@
         <v>723.9884686</v>
       </c>
       <c r="N58" s="23">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="O58" s="26"/>
       <c r="Q58" s="26"/>

--- a/data/BWdataset.xlsx
+++ b/data/BWdataset.xlsx
@@ -30608,11 +30608,11 @@
         <v>17</v>
       </c>
       <c r="D502" s="24">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E502" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>dl1</v>
+        <v>dl2</v>
       </c>
       <c r="F502" s="24">
         <v>3.0</v>
@@ -31238,7 +31238,7 @@
         <v>366.7504417</v>
       </c>
       <c r="N512" s="23">
-        <v>14.0</v>
+        <v>30.0</v>
       </c>
       <c r="O512" s="26"/>
       <c r="P512" s="26"/>
